--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200213.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\新型肺炎\2月14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cnov29\pkuvis.github.io\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AC48F-CA5A-4199-92FC-4CC2B1D02787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113616A9-849B-4378-8236-130DAA654F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9628" uniqueCount="3393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9637" uniqueCount="3394">
   <si>
     <t>统计级别</t>
   </si>
@@ -10442,10 +10442,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>晋江市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建瓯市</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -10458,10 +10454,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>集美区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>区县级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10490,156 +10482,168 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待确认</t>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195287.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195288.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195289.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195290.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195291.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195292.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195293.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195294.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195295.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195296.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195297.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195298.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195299.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195300.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195301.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195302.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195303.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195304.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195305.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195306.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195307.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195308.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195309.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195310.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195311.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195312.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195313.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195314.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195315.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195316.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195317.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195318.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195319.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195320.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195321.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195322.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195323.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195324.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195325.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195326.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195327.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195328.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195329.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195330.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195331.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195332.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195333.htm</t>
+  </si>
+  <si>
+    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195334.htm</t>
+  </si>
+  <si>
+    <t>区县</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>地区待确认</t>
+    <t>集美区</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195287.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195288.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195289.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195290.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195291.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195292.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195293.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195294.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195295.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195296.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195297.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195298.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195299.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195300.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195301.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195302.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195303.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195304.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195305.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195306.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195307.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195308.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195309.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195310.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195311.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195312.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195313.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195314.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195315.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195316.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195317.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195318.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195319.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195320.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195321.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195322.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195323.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195324.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195325.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195326.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195327.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195328.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195329.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195330.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195331.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195332.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195333.htm</t>
-  </si>
-  <si>
-    <t>http://wjw.fujian.gov.cn/xxgk/gzdt/wsjsyw/202002/t20200214_5195334.htm</t>
+    <t>南靖县</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋江市</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>南安市</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10650,7 +10654,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10750,13 +10754,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10797,7 +10794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10865,7 +10862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11149,8 +11145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15.75"/>
@@ -11162,13 +11158,14 @@
     <col min="5" max="5" width="5.05859375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.8203125" style="19" customWidth="1"/>
     <col min="7" max="7" width="17.703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.5859375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="27.5859375" style="19" customWidth="1"/>
     <col min="9" max="9" width="13.64453125" style="12" customWidth="1"/>
     <col min="10" max="10" width="20.1171875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="25.8203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15" style="12" customWidth="1"/>
+    <col min="11" max="11" width="16.41015625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="6.9375" style="12" customWidth="1"/>
     <col min="13" max="16" width="12.46875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.64453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.05859375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="12.1171875" style="12" customWidth="1"/>
     <col min="19" max="19" width="13.87890625" style="12" customWidth="1"/>
     <col min="20" max="20" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" bestFit="1" customWidth="1"/>
@@ -11207,16 +11204,16 @@
         <v>3253</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>2</v>
+      <c r="H1" s="19" t="s">
+        <v>3389</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>3254</v>
@@ -11329,7 +11326,7 @@
         <v>43875</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>3290</v>
@@ -11366,7 +11363,7 @@
       </c>
       <c r="U2" s="19"/>
       <c r="V2" s="23" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="W2" s="24"/>
       <c r="X2" s="21"/>
@@ -11407,7 +11404,7 @@
         <v>43875</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>3290</v>
@@ -11440,7 +11437,7 @@
       </c>
       <c r="U3" s="19"/>
       <c r="V3" s="23" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
       <c r="W3" s="24"/>
       <c r="X3" s="21"/>
@@ -11481,7 +11478,7 @@
         <v>43875</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>3290</v>
@@ -11514,7 +11511,7 @@
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="23" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="W4" s="24"/>
       <c r="X4" s="21"/>
@@ -11555,7 +11552,7 @@
         <v>43875</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>3290</v>
@@ -11584,7 +11581,7 @@
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="23" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
       <c r="W5" s="24"/>
       <c r="X5" s="21"/>
@@ -11625,7 +11622,7 @@
         <v>43875</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>3290</v>
@@ -11656,7 +11653,7 @@
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="23" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
       <c r="W6" s="24"/>
       <c r="X6" s="21"/>
@@ -11688,7 +11685,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C7" s="20">
         <v>43874</v>
@@ -11697,7 +11694,7 @@
         <v>43875</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>3290</v>
@@ -11706,7 +11703,7 @@
         <v>3296</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>3335</v>
+        <v>3390</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -11728,7 +11725,7 @@
       </c>
       <c r="U7" s="19"/>
       <c r="V7" s="23" t="s">
-        <v>3350</v>
+        <v>3346</v>
       </c>
       <c r="W7" s="24"/>
       <c r="X7" s="21"/>
@@ -11769,7 +11766,7 @@
         <v>43875</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>3290</v>
@@ -11802,7 +11799,7 @@
       </c>
       <c r="U8" s="19"/>
       <c r="V8" s="23" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="W8" s="24"/>
       <c r="X8" s="21"/>
@@ -11843,7 +11840,7 @@
         <v>43875</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>3290</v>
@@ -11876,7 +11873,7 @@
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="23" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="W9" s="24"/>
       <c r="X9" s="21"/>
@@ -11916,11 +11913,17 @@
       <c r="D10" s="20">
         <v>43875</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>3296</v>
+      </c>
       <c r="H10" s="19" t="s">
-        <v>3344</v>
+        <v>3295</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -11942,7 +11945,7 @@
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="23" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
       <c r="W10" s="24"/>
       <c r="X10" s="21"/>
@@ -11983,7 +11986,7 @@
         <v>43875</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>3290</v>
@@ -12016,7 +12019,7 @@
       </c>
       <c r="U11" s="19"/>
       <c r="V11" s="23" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="W11" s="24"/>
       <c r="X11" s="21"/>
@@ -12056,11 +12059,17 @@
       <c r="D12" s="20">
         <v>43875</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="27" t="s">
-        <v>1471</v>
+      <c r="E12" s="19" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>3302</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>3391</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19">
@@ -12082,7 +12091,7 @@
       </c>
       <c r="U12" s="19"/>
       <c r="V12" s="23" t="s">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="W12" s="24"/>
       <c r="X12" s="21"/>
@@ -12123,7 +12132,7 @@
         <v>43875</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>3290</v>
@@ -12152,7 +12161,7 @@
       </c>
       <c r="U13" s="19"/>
       <c r="V13" s="23" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
       <c r="W13" s="24"/>
       <c r="X13" s="21"/>
@@ -12193,7 +12202,7 @@
         <v>43875</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>3290</v>
@@ -12226,7 +12235,7 @@
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="23" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
       <c r="W14" s="24"/>
       <c r="X14" s="21"/>
@@ -12258,7 +12267,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C15" s="20">
         <v>43874</v>
@@ -12267,7 +12276,7 @@
         <v>43875</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>3290</v>
@@ -12276,7 +12285,7 @@
         <v>3304</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>3331</v>
+        <v>3392</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19">
@@ -12298,7 +12307,7 @@
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="23" t="s">
-        <v>3358</v>
+        <v>3354</v>
       </c>
       <c r="W15" s="24"/>
       <c r="X15" s="21"/>
@@ -12330,7 +12339,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C16" s="20">
         <v>43874</v>
@@ -12338,11 +12347,17 @@
       <c r="D16" s="20">
         <v>43875</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="27" t="s">
-        <v>1463</v>
+      <c r="E16" s="19" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>3304</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>3393</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19">
@@ -12364,7 +12379,7 @@
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="23" t="s">
-        <v>3359</v>
+        <v>3355</v>
       </c>
       <c r="W16" s="24"/>
       <c r="X16" s="21"/>
@@ -12405,7 +12420,7 @@
         <v>43875</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>3290</v>
@@ -12434,7 +12449,7 @@
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="23" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="W17" s="24"/>
       <c r="X17" s="21"/>
@@ -12475,7 +12490,7 @@
         <v>43875</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>3290</v>
@@ -12506,7 +12521,7 @@
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="23" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
       <c r="W18" s="24"/>
       <c r="X18" s="21"/>
@@ -12538,7 +12553,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C19" s="20">
         <v>43874</v>
@@ -12547,7 +12562,7 @@
         <v>43875</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>3290</v>
@@ -12556,7 +12571,7 @@
         <v>3306</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -12576,7 +12591,7 @@
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="23" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="21"/>
@@ -12617,7 +12632,7 @@
         <v>43875</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>3290</v>
@@ -12646,7 +12661,7 @@
       </c>
       <c r="U20" s="19"/>
       <c r="V20" s="23" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="21"/>
@@ -12687,7 +12702,7 @@
         <v>43875</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>3290</v>
@@ -12722,7 +12737,7 @@
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="23" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="21"/>
@@ -12763,7 +12778,7 @@
         <v>43875</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>3290</v>
@@ -12796,7 +12811,7 @@
       </c>
       <c r="U22" s="19"/>
       <c r="V22" s="23" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
       <c r="W22" s="24"/>
       <c r="X22" s="21"/>
@@ -12837,7 +12852,7 @@
         <v>43875</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>3290</v>
@@ -12870,7 +12885,7 @@
       </c>
       <c r="U23" s="19"/>
       <c r="V23" s="23" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
       <c r="W23" s="24"/>
       <c r="X23" s="21"/>
@@ -12911,7 +12926,7 @@
         <v>43875</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>3290</v>
@@ -12942,7 +12957,7 @@
       </c>
       <c r="U24" s="19"/>
       <c r="V24" s="23" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="W24" s="24"/>
       <c r="X24" s="21"/>
@@ -12983,7 +12998,7 @@
         <v>43875</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>3290</v>
@@ -13016,7 +13031,7 @@
       </c>
       <c r="U25" s="19"/>
       <c r="V25" s="23" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
       <c r="W25" s="24"/>
       <c r="X25" s="21"/>
@@ -13057,7 +13072,7 @@
         <v>43875</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>3290</v>
@@ -13088,7 +13103,7 @@
       </c>
       <c r="U26" s="19"/>
       <c r="V26" s="23" t="s">
-        <v>3369</v>
+        <v>3365</v>
       </c>
       <c r="W26" s="24"/>
       <c r="X26" s="21"/>
@@ -13120,7 +13135,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C27" s="20">
         <v>43874</v>
@@ -13129,7 +13144,7 @@
         <v>43875</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>3290</v>
@@ -13138,7 +13153,7 @@
         <v>3308</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -13158,7 +13173,7 @@
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="23" t="s">
-        <v>3370</v>
+        <v>3366</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="21"/>
@@ -13190,7 +13205,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C28" s="20">
         <v>43874</v>
@@ -13199,7 +13214,7 @@
         <v>43875</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>3290</v>
@@ -13208,7 +13223,7 @@
         <v>3308</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19">
@@ -13232,7 +13247,7 @@
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="23" t="s">
-        <v>3371</v>
+        <v>3367</v>
       </c>
       <c r="W28" s="24"/>
       <c r="X28" s="21"/>
@@ -13264,7 +13279,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C29" s="20">
         <v>43874</v>
@@ -13273,7 +13288,7 @@
         <v>43875</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>3290</v>
@@ -13304,7 +13319,7 @@
       </c>
       <c r="U29" s="19"/>
       <c r="V29" s="23" t="s">
-        <v>3372</v>
+        <v>3368</v>
       </c>
       <c r="W29" s="24"/>
       <c r="X29" s="21"/>
@@ -13345,7 +13360,7 @@
         <v>43875</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>3290</v>
@@ -13378,7 +13393,7 @@
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="23" t="s">
-        <v>3373</v>
+        <v>3369</v>
       </c>
       <c r="W30" s="24"/>
       <c r="X30" s="21"/>
@@ -13419,7 +13434,7 @@
         <v>43875</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>3290</v>
@@ -13448,7 +13463,7 @@
       </c>
       <c r="U31" s="19"/>
       <c r="V31" s="23" t="s">
-        <v>3374</v>
+        <v>3370</v>
       </c>
       <c r="W31" s="24"/>
       <c r="X31" s="21"/>
@@ -13489,7 +13504,7 @@
         <v>43875</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>3290</v>
@@ -13520,7 +13535,7 @@
       </c>
       <c r="U32" s="19"/>
       <c r="V32" s="23" t="s">
-        <v>3375</v>
+        <v>3371</v>
       </c>
       <c r="W32" s="24"/>
       <c r="X32" s="21"/>
@@ -13561,7 +13576,7 @@
         <v>43875</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>3290</v>
@@ -13570,7 +13585,7 @@
         <v>3308</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>3343</v>
+        <v>3295</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19">
@@ -13594,7 +13609,7 @@
       </c>
       <c r="U33" s="19"/>
       <c r="V33" s="23" t="s">
-        <v>3376</v>
+        <v>3372</v>
       </c>
       <c r="W33" s="24"/>
       <c r="X33" s="21"/>
@@ -13635,7 +13650,7 @@
         <v>43875</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>3290</v>
@@ -13668,7 +13683,7 @@
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="23" t="s">
-        <v>3377</v>
+        <v>3373</v>
       </c>
       <c r="W34" s="24"/>
       <c r="X34" s="21"/>
@@ -13709,7 +13724,7 @@
         <v>43875</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>3290</v>
@@ -13740,7 +13755,7 @@
       </c>
       <c r="U35" s="19"/>
       <c r="V35" s="23" t="s">
-        <v>3378</v>
+        <v>3374</v>
       </c>
       <c r="W35" s="24"/>
       <c r="X35" s="21"/>
@@ -13781,7 +13796,7 @@
         <v>43875</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>3290</v>
@@ -13810,7 +13825,7 @@
       </c>
       <c r="U36" s="19"/>
       <c r="V36" s="23" t="s">
-        <v>3379</v>
+        <v>3375</v>
       </c>
       <c r="W36" s="24"/>
       <c r="X36" s="21"/>
@@ -13851,7 +13866,7 @@
         <v>43875</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>3290</v>
@@ -13880,7 +13895,7 @@
       </c>
       <c r="U37" s="19"/>
       <c r="V37" s="23" t="s">
-        <v>3380</v>
+        <v>3376</v>
       </c>
       <c r="W37" s="24"/>
       <c r="X37" s="21"/>
@@ -13921,7 +13936,7 @@
         <v>43875</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>3290</v>
@@ -13950,7 +13965,7 @@
       </c>
       <c r="U38" s="19"/>
       <c r="V38" s="23" t="s">
-        <v>3381</v>
+        <v>3377</v>
       </c>
       <c r="W38" s="24"/>
       <c r="X38" s="21"/>
@@ -13991,7 +14006,7 @@
         <v>43875</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>3290</v>
@@ -14020,7 +14035,7 @@
       </c>
       <c r="U39" s="19"/>
       <c r="V39" s="23" t="s">
-        <v>3382</v>
+        <v>3378</v>
       </c>
       <c r="W39" s="24"/>
       <c r="X39" s="21"/>
@@ -14061,7 +14076,7 @@
         <v>43875</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>3290</v>
@@ -14092,7 +14107,7 @@
       </c>
       <c r="U40" s="19"/>
       <c r="V40" s="23" t="s">
-        <v>3383</v>
+        <v>3379</v>
       </c>
       <c r="W40" s="24"/>
       <c r="X40" s="21"/>
@@ -14133,7 +14148,7 @@
         <v>43875</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>3290</v>
@@ -14162,7 +14177,7 @@
       </c>
       <c r="U41" s="19"/>
       <c r="V41" s="23" t="s">
-        <v>3384</v>
+        <v>3380</v>
       </c>
       <c r="W41" s="24"/>
       <c r="X41" s="21"/>
@@ -14203,7 +14218,7 @@
         <v>43875</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>3290</v>
@@ -14232,7 +14247,7 @@
       </c>
       <c r="U42" s="19"/>
       <c r="V42" s="23" t="s">
-        <v>3385</v>
+        <v>3381</v>
       </c>
       <c r="W42" s="24"/>
       <c r="X42" s="21"/>
@@ -14273,7 +14288,7 @@
         <v>43875</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>3290</v>
@@ -14302,7 +14317,7 @@
       </c>
       <c r="U43" s="19"/>
       <c r="V43" s="23" t="s">
-        <v>3386</v>
+        <v>3382</v>
       </c>
       <c r="W43" s="24"/>
       <c r="X43" s="21"/>
@@ -14343,7 +14358,7 @@
         <v>43875</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>3290</v>
@@ -14376,7 +14391,7 @@
       </c>
       <c r="U44" s="19"/>
       <c r="V44" s="23" t="s">
-        <v>3387</v>
+        <v>3383</v>
       </c>
       <c r="W44" s="24"/>
       <c r="X44" s="21"/>
@@ -14408,7 +14423,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C45" s="20">
         <v>43874</v>
@@ -14417,7 +14432,7 @@
         <v>43875</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>3290</v>
@@ -14426,7 +14441,7 @@
         <v>3327</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19">
@@ -14448,7 +14463,7 @@
       </c>
       <c r="U45" s="19"/>
       <c r="V45" s="23" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="W45" s="24"/>
       <c r="X45" s="21"/>
@@ -14480,7 +14495,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C46" s="20">
         <v>43874</v>
@@ -14489,7 +14504,7 @@
         <v>43875</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>3290</v>
@@ -14498,7 +14513,7 @@
         <v>3327</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -14518,7 +14533,7 @@
       </c>
       <c r="U46" s="19"/>
       <c r="V46" s="23" t="s">
-        <v>3389</v>
+        <v>3385</v>
       </c>
       <c r="W46" s="24"/>
       <c r="X46" s="21"/>
@@ -14559,7 +14574,7 @@
         <v>43875</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>3290</v>
@@ -14590,7 +14605,7 @@
       </c>
       <c r="U47" s="19"/>
       <c r="V47" s="23" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
       <c r="W47" s="24"/>
       <c r="X47" s="21"/>
@@ -14631,7 +14646,7 @@
         <v>43875</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>3290</v>
@@ -14662,7 +14677,7 @@
       </c>
       <c r="U48" s="19"/>
       <c r="V48" s="23" t="s">
-        <v>3391</v>
+        <v>3387</v>
       </c>
       <c r="W48" s="24"/>
       <c r="X48" s="21"/>
@@ -14703,7 +14718,7 @@
         <v>43875</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>3290</v>
@@ -14732,7 +14747,7 @@
       </c>
       <c r="U49" s="19"/>
       <c r="V49" s="23" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
       <c r="W49" s="24"/>
       <c r="X49" s="21"/>
@@ -14777,7 +14792,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H26 H30:H44 H2:H11 H13:H15 H17:H18 H47:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H26 H47:H1048576 H2:H11 H13:H15 H17:H18 H30:H44" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
@@ -14984,7 +14999,7 @@
         <v>52</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>54</v>
